--- a/translation/xlsx/_tsum_tips_006.xlsx
+++ b/translation/xlsx/_tsum_tips_006.xlsx
@@ -150,7 +150,7 @@
     <t>...But it might be worth spending time to think about a good excuse for that if it meant I would be able to enjoy ice without ever again smelling the chlorine.</t>
   </si>
   <si>
-    <t>...살 구실을 떠올리려서 이 염소 냄새를 영원히 없앨 수만 있다면, 시간을 투자할 만한 가치가 있지 않을까?</t>
+    <t>...살 구실을 떠올리는 거로 이 염소 냄새를 영원히 없앨 수만 있다면, 시간을 투자할 만한 가치는 있지 않을까?</t>
   </si>
   <si>
     <t>......그 구실을 잘 생각해 내는 것만으로, 이 염소취를 미래 영겁하게 탈취할 수 있다면, 과연 그것은 생각하는데 시간을 소비할 가치가 있을 것 같았다.</t>
